--- a/data/statistiche calci8 2019-2020.xlsx
+++ b/data/statistiche calci8 2019-2020.xlsx
@@ -1,17 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11109"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9897E152-167A-E346-9469-08A413A0AD53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="300" windowWidth="18732" windowHeight="11700"/>
+    <workbookView xWindow="360" yWindow="620" windowWidth="18740" windowHeight="11700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
-    <sheet name="Foglio2" sheetId="2" r:id="rId2"/>
-    <sheet name="Foglio3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -105,9 +117,6 @@
     <t>Botta (2)</t>
   </si>
   <si>
-    <t>Pietravalle ( R )</t>
-  </si>
-  <si>
     <t>Data di nascita</t>
   </si>
   <si>
@@ -289,13 +298,16 @@
   </si>
   <si>
     <t xml:space="preserve"> - </t>
+  </si>
+  <si>
+    <t>Pietravalle ( P )</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -363,21 +375,29 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8"/>
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -415,7 +435,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -449,6 +469,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -483,9 +504,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -658,22 +680,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="9.77734375" customWidth="1"/>
-    <col min="15" max="15" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.83203125" customWidth="1"/>
+    <col min="15" max="16" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -707,7 +728,7 @@
       <c r="AC1" s="1"/>
       <c r="AD1" s="1"/>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -739,7 +760,7 @@
       <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
     </row>
-    <row r="3" spans="1:30">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -751,30 +772,30 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N3" s="1"/>
       <c r="P3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q3" s="1"/>
       <c r="R3" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
@@ -782,29 +803,29 @@
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" t="s">
+        <v>81</v>
+      </c>
+      <c r="N4" t="s">
         <v>82</v>
-      </c>
-      <c r="N4" t="s">
-        <v>83</v>
       </c>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
@@ -816,7 +837,7 @@
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -853,10 +874,10 @@
       </c>
       <c r="Q5" s="1"/>
       <c r="R5" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="V5" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
@@ -864,7 +885,7 @@
       <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -903,10 +924,10 @@
       </c>
       <c r="Q6" s="1"/>
       <c r="R6" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="V6" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
@@ -914,7 +935,7 @@
       <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -944,10 +965,10 @@
       </c>
       <c r="Q7" s="1"/>
       <c r="R7" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="V7" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
@@ -955,7 +976,7 @@
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -985,7 +1006,7 @@
       </c>
       <c r="Q8" s="1"/>
       <c r="R8" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
@@ -994,7 +1015,7 @@
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -1024,10 +1045,10 @@
       </c>
       <c r="Q9" s="1"/>
       <c r="R9" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="V9" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
@@ -1035,7 +1056,7 @@
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -1065,10 +1086,10 @@
       </c>
       <c r="Q10" s="1"/>
       <c r="R10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="V10" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
@@ -1076,7 +1097,7 @@
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -1111,10 +1132,10 @@
       </c>
       <c r="Q11" s="1"/>
       <c r="R11" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="V11" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
@@ -1122,7 +1143,7 @@
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -1157,10 +1178,10 @@
       </c>
       <c r="Q12" s="1"/>
       <c r="R12" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="V12" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
@@ -1168,7 +1189,7 @@
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -1203,10 +1224,10 @@
       </c>
       <c r="Q13" s="1"/>
       <c r="R13" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V13" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
@@ -1214,7 +1235,7 @@
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -1249,7 +1270,7 @@
       </c>
       <c r="Q14" s="1"/>
       <c r="R14" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
@@ -1258,7 +1279,7 @@
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
@@ -1295,10 +1316,10 @@
       </c>
       <c r="Q15" s="1"/>
       <c r="R15" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="V15" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
@@ -1306,7 +1327,7 @@
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -1338,10 +1359,10 @@
       </c>
       <c r="Q16" s="1"/>
       <c r="R16" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V16" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
@@ -1349,7 +1370,7 @@
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
     </row>
-    <row r="17" spans="1:30">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
@@ -1372,7 +1393,7 @@
       </c>
       <c r="Q17" s="1"/>
       <c r="R17" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
@@ -1381,7 +1402,7 @@
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
     </row>
-    <row r="18" spans="1:30">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
@@ -1404,7 +1425,7 @@
       </c>
       <c r="Q18" s="1"/>
       <c r="R18" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
@@ -1413,7 +1434,7 @@
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
     </row>
-    <row r="19" spans="1:30">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
@@ -1436,7 +1457,7 @@
       </c>
       <c r="Q19" s="1"/>
       <c r="R19" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
@@ -1445,7 +1466,7 @@
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
     </row>
-    <row r="20" spans="1:30">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1472,7 +1493,7 @@
       <c r="AC20" s="1"/>
       <c r="AD20" s="1"/>
     </row>
-    <row r="21" spans="1:30">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1499,7 +1520,7 @@
       <c r="AC21" s="1"/>
       <c r="AD21" s="1"/>
     </row>
-    <row r="22" spans="1:30">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1531,7 +1552,7 @@
       <c r="AC22" s="1"/>
       <c r="AD22" s="1"/>
     </row>
-    <row r="23" spans="1:30">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1563,7 +1584,7 @@
       <c r="AC23" s="1"/>
       <c r="AD23" s="1"/>
     </row>
-    <row r="24" spans="1:30">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1595,7 +1616,7 @@
       <c r="AC24" s="1"/>
       <c r="AD24" s="1"/>
     </row>
-    <row r="25" spans="1:30">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1629,7 +1650,7 @@
       <c r="AC25" s="1"/>
       <c r="AD25" s="1"/>
     </row>
-    <row r="26" spans="1:30">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1661,7 +1682,7 @@
       <c r="AC26" s="1"/>
       <c r="AD26" s="1"/>
     </row>
-    <row r="27" spans="1:30">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>21</v>
       </c>
@@ -1695,7 +1716,7 @@
       <c r="AC27" s="1"/>
       <c r="AD27" s="1"/>
     </row>
-    <row r="28" spans="1:30">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>43767</v>
       </c>
@@ -1714,7 +1735,7 @@
         <v>3</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I28" s="3"/>
       <c r="J28" s="1"/>
@@ -1735,7 +1756,7 @@
       <c r="Y28" s="1"/>
       <c r="Z28" s="1"/>
     </row>
-    <row r="29" spans="1:30">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1765,7 +1786,7 @@
       <c r="Y29" s="1"/>
       <c r="Z29" s="1"/>
     </row>
-    <row r="30" spans="1:30">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1795,7 +1816,7 @@
       <c r="Y30" s="1"/>
       <c r="Z30" s="1"/>
     </row>
-    <row r="31" spans="1:30">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1825,7 +1846,7 @@
       <c r="Y31" s="1"/>
       <c r="Z31" s="1"/>
     </row>
-    <row r="32" spans="1:30">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1853,7 +1874,7 @@
       <c r="Y32" s="1"/>
       <c r="Z32" s="1"/>
     </row>
-    <row r="33" spans="1:26">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>21</v>
       </c>
@@ -1883,7 +1904,7 @@
       <c r="Y33" s="1"/>
       <c r="Z33" s="1"/>
     </row>
-    <row r="34" spans="1:26">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>43775</v>
       </c>
@@ -1923,7 +1944,7 @@
       <c r="Y34" s="1"/>
       <c r="Z34" s="1"/>
     </row>
-    <row r="35" spans="1:26">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -1953,7 +1974,7 @@
       <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
     </row>
-    <row r="36" spans="1:26">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -1961,7 +1982,7 @@
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1" t="s">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
@@ -1983,7 +2004,7 @@
       <c r="Y36" s="1"/>
       <c r="Z36" s="1"/>
     </row>
-    <row r="37" spans="1:26">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -2013,7 +2034,7 @@
       <c r="Y37" s="1"/>
       <c r="Z37" s="1"/>
     </row>
-    <row r="38" spans="1:26">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -2041,7 +2062,7 @@
       <c r="Y38" s="1"/>
       <c r="Z38" s="1"/>
     </row>
-    <row r="39" spans="1:26">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>21</v>
       </c>
@@ -2071,7 +2092,7 @@
       <c r="Y39" s="1"/>
       <c r="Z39" s="1"/>
     </row>
-    <row r="40" spans="1:26">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>43782</v>
       </c>
@@ -2111,7 +2132,7 @@
       <c r="Y40" s="1"/>
       <c r="Z40" s="1"/>
     </row>
-    <row r="41" spans="1:26">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -2119,7 +2140,7 @@
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
@@ -2141,7 +2162,7 @@
       <c r="Y41" s="1"/>
       <c r="Z41" s="1"/>
     </row>
-    <row r="42" spans="1:26">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -2169,7 +2190,7 @@
       <c r="Y42" s="1"/>
       <c r="Z42" s="1"/>
     </row>
-    <row r="43" spans="1:26" s="5" customFormat="1">
+    <row r="43" spans="1:26" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="J43" s="6"/>
       <c r="K43" s="6"/>
       <c r="L43" s="6"/>
@@ -2188,7 +2209,7 @@
       <c r="Y43" s="6"/>
       <c r="Z43" s="6"/>
     </row>
-    <row r="44" spans="1:26">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
@@ -2207,9 +2228,9 @@
       <c r="Y44" s="1"/>
       <c r="Z44" s="1"/>
     </row>
-    <row r="45" spans="1:26">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -2237,7 +2258,7 @@
       <c r="Y45" s="1"/>
       <c r="Z45" s="1"/>
     </row>
-    <row r="46" spans="1:26">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>43789</v>
       </c>
@@ -2277,7 +2298,7 @@
       <c r="Y46" s="1"/>
       <c r="Z46" s="1"/>
     </row>
-    <row r="47" spans="1:26">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -2285,7 +2306,7 @@
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
@@ -2307,7 +2328,7 @@
       <c r="Y47" s="1"/>
       <c r="Z47" s="1"/>
     </row>
-    <row r="48" spans="1:26">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -2335,7 +2356,7 @@
       <c r="Y48" s="1"/>
       <c r="Z48" s="1"/>
     </row>
-    <row r="49" spans="1:26">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -2363,13 +2384,13 @@
       <c r="Y49" s="1"/>
       <c r="Z49" s="1"/>
     </row>
-    <row r="50" spans="1:26">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>43794</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1">
@@ -2382,7 +2403,7 @@
         <v>6</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
@@ -2403,13 +2424,13 @@
       <c r="Y50" s="1"/>
       <c r="Z50" s="1"/>
     </row>
-    <row r="51" spans="1:26">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
@@ -2433,7 +2454,7 @@
       <c r="Y51" s="1"/>
       <c r="Z51" s="1"/>
     </row>
-    <row r="52" spans="1:26">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -2461,7 +2482,7 @@
       <c r="Y52" s="1"/>
       <c r="Z52" s="1"/>
     </row>
-    <row r="53" spans="1:26">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -2489,7 +2510,7 @@
       <c r="Y53" s="1"/>
       <c r="Z53" s="1"/>
     </row>
-    <row r="54" spans="1:26">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>43801</v>
       </c>
@@ -2508,7 +2529,7 @@
         <v>5</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
@@ -2529,7 +2550,7 @@
       <c r="Y54" s="1"/>
       <c r="Z54" s="1"/>
     </row>
-    <row r="55" spans="1:26">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -2559,13 +2580,13 @@
       <c r="Y55" s="1"/>
       <c r="Z55" s="1"/>
     </row>
-    <row r="56" spans="1:26">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
@@ -2589,7 +2610,7 @@
       <c r="Y56" s="1"/>
       <c r="Z56" s="1"/>
     </row>
-    <row r="57" spans="1:26">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -2617,7 +2638,7 @@
       <c r="Y57" s="1"/>
       <c r="Z57" s="1"/>
     </row>
-    <row r="58" spans="1:26">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -2645,13 +2666,13 @@
       <c r="Y58" s="1"/>
       <c r="Z58" s="1"/>
     </row>
-    <row r="59" spans="1:26">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>43810</v>
       </c>
       <c r="B59" s="1"/>
       <c r="C59" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="1">
@@ -2685,7 +2706,7 @@
       <c r="Y59" s="1"/>
       <c r="Z59" s="1"/>
     </row>
-    <row r="60" spans="1:26">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -2693,7 +2714,7 @@
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
       <c r="G60" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
@@ -2715,7 +2736,7 @@
       <c r="Y60" s="1"/>
       <c r="Z60" s="1"/>
     </row>
-    <row r="61" spans="1:26">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -2743,7 +2764,7 @@
       <c r="Y61" s="1"/>
       <c r="Z61" s="1"/>
     </row>
-    <row r="62" spans="1:26">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -2771,7 +2792,7 @@
       <c r="Y62" s="1"/>
       <c r="Z62" s="1"/>
     </row>
-    <row r="63" spans="1:26">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>43817</v>
       </c>
@@ -2790,7 +2811,7 @@
         <v>1</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
@@ -2811,13 +2832,13 @@
       <c r="Y63" s="1"/>
       <c r="Z63" s="1"/>
     </row>
-    <row r="64" spans="1:26">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
@@ -2841,13 +2862,13 @@
       <c r="Y64" s="1"/>
       <c r="Z64" s="1"/>
     </row>
-    <row r="65" spans="1:26">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
@@ -2871,13 +2892,13 @@
       <c r="Y65" s="1"/>
       <c r="Z65" s="1"/>
     </row>
-    <row r="66" spans="1:26">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
@@ -2901,13 +2922,13 @@
       <c r="Y66" s="1"/>
       <c r="Z66" s="1"/>
     </row>
-    <row r="67" spans="1:26">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
@@ -2931,7 +2952,7 @@
       <c r="Y67" s="1"/>
       <c r="Z67" s="1"/>
     </row>
-    <row r="68" spans="1:26">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -2959,7 +2980,7 @@
       <c r="Y68" s="1"/>
       <c r="Z68" s="1"/>
     </row>
-    <row r="69" spans="1:26">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -2987,13 +3008,13 @@
       <c r="Y69" s="1"/>
       <c r="Z69" s="1"/>
     </row>
-    <row r="70" spans="1:26">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>43843</v>
       </c>
       <c r="B70" s="1"/>
       <c r="C70" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="1">
@@ -3027,7 +3048,7 @@
       <c r="Y70" s="1"/>
       <c r="Z70" s="1"/>
     </row>
-    <row r="71" spans="1:26">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -3055,7 +3076,7 @@
       <c r="Y71" s="1"/>
       <c r="Z71" s="1"/>
     </row>
-    <row r="72" spans="1:26">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -3083,7 +3104,7 @@
       <c r="Y72" s="1"/>
       <c r="Z72" s="1"/>
     </row>
-    <row r="73" spans="1:26">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>43850</v>
       </c>
@@ -3102,7 +3123,7 @@
         <v>1</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
@@ -3123,13 +3144,13 @@
       <c r="Y73" s="1"/>
       <c r="Z73" s="1"/>
     </row>
-    <row r="74" spans="1:26">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
@@ -3153,7 +3174,7 @@
       <c r="Y74" s="1"/>
       <c r="Z74" s="1"/>
     </row>
-    <row r="75" spans="1:26">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -3181,7 +3202,7 @@
       <c r="Y75" s="1"/>
       <c r="Z75" s="1"/>
     </row>
-    <row r="76" spans="1:26">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -3209,7 +3230,7 @@
       <c r="Y76" s="1"/>
       <c r="Z76" s="1"/>
     </row>
-    <row r="77" spans="1:26">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
         <v>43858</v>
       </c>
@@ -3228,7 +3249,7 @@
         <v>6</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
@@ -3249,13 +3270,13 @@
       <c r="Y77" s="1"/>
       <c r="Z77" s="1"/>
     </row>
-    <row r="78" spans="1:26">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
@@ -3279,7 +3300,7 @@
       <c r="Y78" s="1"/>
       <c r="Z78" s="1"/>
     </row>
-    <row r="79" spans="1:26">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -3307,7 +3328,7 @@
       <c r="Y79" s="1"/>
       <c r="Z79" s="1"/>
     </row>
-    <row r="80" spans="1:26">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -3335,7 +3356,7 @@
       <c r="Y80" s="1"/>
       <c r="Z80" s="1"/>
     </row>
-    <row r="81" spans="1:26">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <v>43864</v>
       </c>
@@ -3354,7 +3375,7 @@
         <v>3</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I81" s="1"/>
       <c r="J81" s="1"/>
@@ -3375,13 +3396,13 @@
       <c r="Y81" s="1"/>
       <c r="Z81" s="1"/>
     </row>
-    <row r="82" spans="1:26">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
@@ -3405,7 +3426,7 @@
       <c r="Y82" s="1"/>
       <c r="Z82" s="1"/>
     </row>
-    <row r="83" spans="1:26">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -3433,7 +3454,7 @@
       <c r="Y83" s="1"/>
       <c r="Z83" s="1"/>
     </row>
-    <row r="84" spans="1:26">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -3461,7 +3482,7 @@
       <c r="Y84" s="1"/>
       <c r="Z84" s="1"/>
     </row>
-    <row r="85" spans="1:26">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
         <v>43871</v>
       </c>
@@ -3480,12 +3501,12 @@
         <v>5</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I85" s="1"/>
       <c r="J85" s="1"/>
       <c r="K85" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L85" s="1"/>
       <c r="M85" s="1"/>
@@ -3503,13 +3524,13 @@
       <c r="Y85" s="1"/>
       <c r="Z85" s="1"/>
     </row>
-    <row r="86" spans="1:26">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
@@ -3533,7 +3554,7 @@
       <c r="Y86" s="1"/>
       <c r="Z86" s="1"/>
     </row>
-    <row r="87" spans="1:26">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -3563,7 +3584,7 @@
       <c r="Y87" s="1"/>
       <c r="Z87" s="1"/>
     </row>
-    <row r="88" spans="1:26">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -3591,7 +3612,7 @@
       <c r="Y88" s="1"/>
       <c r="Z88" s="1"/>
     </row>
-    <row r="89" spans="1:26">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.2">
       <c r="J89" s="1"/>
       <c r="K89" s="1"/>
       <c r="L89" s="1"/>
@@ -3610,7 +3631,7 @@
       <c r="Y89" s="1"/>
       <c r="Z89" s="1"/>
     </row>
-    <row r="90" spans="1:26">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
         <v>43880</v>
       </c>
@@ -3629,12 +3650,12 @@
         <v>3</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I90" s="1"/>
       <c r="J90" s="1"/>
       <c r="K90" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L90" s="1"/>
       <c r="M90" s="1"/>
@@ -3652,7 +3673,7 @@
       <c r="Y90" s="1"/>
       <c r="Z90" s="1"/>
     </row>
-    <row r="91" spans="1:26">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -3680,7 +3701,7 @@
       <c r="Y91" s="1"/>
       <c r="Z91" s="1"/>
     </row>
-    <row r="92" spans="1:26">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -3708,13 +3729,13 @@
       <c r="Y92" s="1"/>
       <c r="Z92" s="1"/>
     </row>
-    <row r="93" spans="1:26">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
         <v>43885</v>
       </c>
       <c r="B93" s="1"/>
       <c r="C93" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D93" s="1"/>
       <c r="E93" s="1">
@@ -3732,7 +3753,7 @@
       <c r="I93" s="1"/>
       <c r="J93" s="1"/>
       <c r="K93" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L93" s="1"/>
       <c r="M93" s="1"/>
@@ -3750,7 +3771,7 @@
       <c r="Y93" s="1"/>
       <c r="Z93" s="1"/>
     </row>
-    <row r="94" spans="1:26">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -3780,7 +3801,7 @@
       <c r="Y94" s="1"/>
       <c r="Z94" s="1"/>
     </row>
-    <row r="95" spans="1:26">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -3808,20 +3829,20 @@
       <c r="Y95" s="1"/>
       <c r="Z95" s="1"/>
     </row>
-    <row r="96" spans="1:26">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
         <v>43865</v>
       </c>
       <c r="B96" s="1"/>
       <c r="C96" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D96" s="1"/>
       <c r="E96" s="1">
         <v>3</v>
       </c>
       <c r="F96" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G96" s="1">
         <v>0</v>
@@ -3832,7 +3853,7 @@
       <c r="I96" s="1"/>
       <c r="J96" s="1"/>
       <c r="K96" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L96" s="1"/>
       <c r="M96" s="1"/>
@@ -3850,7 +3871,7 @@
       <c r="Y96" s="1"/>
       <c r="Z96" s="1"/>
     </row>
-    <row r="97" spans="1:30">
+    <row r="97" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -3882,7 +3903,7 @@
       <c r="AC97" s="1"/>
       <c r="AD97" s="1"/>
     </row>
-    <row r="98" spans="1:30">
+    <row r="98" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -3914,7 +3935,7 @@
       <c r="AC98" s="1"/>
       <c r="AD98" s="1"/>
     </row>
-    <row r="99" spans="1:30">
+    <row r="99" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -3946,7 +3967,7 @@
       <c r="AC99" s="1"/>
       <c r="AD99" s="1"/>
     </row>
-    <row r="100" spans="1:30">
+    <row r="100" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -3980,44 +4001,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="V5" r:id="rId1"/>
-    <hyperlink ref="V9" r:id="rId2"/>
-    <hyperlink ref="V10" r:id="rId3"/>
-    <hyperlink ref="V11" r:id="rId4"/>
-    <hyperlink ref="V15" r:id="rId5"/>
-    <hyperlink ref="V6" r:id="rId6"/>
-    <hyperlink ref="V13" r:id="rId7"/>
-    <hyperlink ref="V16" r:id="rId8"/>
-    <hyperlink ref="V12" r:id="rId9"/>
-    <hyperlink ref="V7" r:id="rId10"/>
+    <hyperlink ref="V5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="V9" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="V10" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="V11" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="V15" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="V6" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="V13" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="V16" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="V12" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="V7" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
   </hyperlinks>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
-</worksheet>
 </file>
--- a/data/statistiche calci8 2019-2020.xlsx
+++ b/data/statistiche calci8 2019-2020.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11116"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9897E152-167A-E346-9469-08A413A0AD53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{182BB98B-4E0C-4B4A-8773-6811FCF91B23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="620" windowWidth="18740" windowHeight="11700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -300,7 +300,7 @@
     <t xml:space="preserve"> - </t>
   </si>
   <si>
-    <t>Pietravalle ( P )</t>
+    <t>Pietravalle (P)</t>
   </si>
 </sst>
 </file>
@@ -683,8 +683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
